--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -14,12 +14,25 @@
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
     <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
     <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
+    <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +49,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +79,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +91,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -108,7 +121,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>H1</t>
+    <t>23a80ae9-ab88-48ed-a689-36bdd3cc6e41</t>
   </si>
   <si>
     <t/>
@@ -120,7 +133,46 @@
     <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>3823d4cd-c38f-49f7-bb15-bd2488b07cd9</t>
+  </si>
+  <si>
+    <t>6cacf7a2-97ef-4981-a16a-338d571fc115</t>
+  </si>
+  <si>
+    <t>fe266687-9efd-4aea-a37c-49c88632d4f3</t>
+  </si>
+  <si>
+    <t>4bfff76f-cc05-4635-96e5-282f4abb2986</t>
+  </si>
+  <si>
+    <t>90910722-a79d-4c35-8110-3adc988b206b</t>
+  </si>
+  <si>
+    <t>aeb52f84-c587-4e12-8793-69ebf83819f5</t>
+  </si>
+  <si>
+    <t>db582ef3-121c-4061-9569-3dbede361d47</t>
+  </si>
+  <si>
+    <t>ae759142-4006-454f-a585-ca02519e5579</t>
+  </si>
+  <si>
+    <t>6f9ed46f-6498-4567-9637-2324dbfaa0a0</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_1_Personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_2_Praktisk_hjaelp_i_hjemmet</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_3_Madservice</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_praktisk_hjaelp_i_hjemmet</t>
   </si>
   <si>
     <t>H3</t>
@@ -392,6 +444,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -447,6 +1049,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -775,4 +1487,59 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -14,12 +14,25 @@
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
     <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
     <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
+    <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +49,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +79,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +91,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -108,7 +121,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>H1</t>
+    <t>23a80ae9-ab88-48ed-a689-36bdd3cc6e41</t>
   </si>
   <si>
     <t/>
@@ -120,7 +133,46 @@
     <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>3823d4cd-c38f-49f7-bb15-bd2488b07cd9</t>
+  </si>
+  <si>
+    <t>6cacf7a2-97ef-4981-a16a-338d571fc115</t>
+  </si>
+  <si>
+    <t>fe266687-9efd-4aea-a37c-49c88632d4f3</t>
+  </si>
+  <si>
+    <t>4bfff76f-cc05-4635-96e5-282f4abb2986</t>
+  </si>
+  <si>
+    <t>90910722-a79d-4c35-8110-3adc988b206b</t>
+  </si>
+  <si>
+    <t>aeb52f84-c587-4e12-8793-69ebf83819f5</t>
+  </si>
+  <si>
+    <t>db582ef3-121c-4061-9569-3dbede361d47</t>
+  </si>
+  <si>
+    <t>ae759142-4006-454f-a585-ca02519e5579</t>
+  </si>
+  <si>
+    <t>6f9ed46f-6498-4567-9637-2324dbfaa0a0</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_1_Personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_2_Praktisk_hjaelp_i_hjemmet</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_3_Madservice</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_praktisk_hjaelp_i_hjemmet</t>
   </si>
   <si>
     <t>H3</t>
@@ -392,6 +444,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -447,6 +1049,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -775,4 +1487,59 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -14,12 +14,25 @@
     <sheet name="Include from FSIII 5" r:id="rId8" sheetId="6"/>
     <sheet name="Include from FSIII 6" r:id="rId9" sheetId="7"/>
     <sheet name="Include from FSIII 7" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from FSIII 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from FSIII 9" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
+    <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
+    <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +49,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +79,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +91,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -108,7 +121,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>H1</t>
+    <t>23a80ae9-ab88-48ed-a689-36bdd3cc6e41</t>
   </si>
   <si>
     <t/>
@@ -120,7 +133,46 @@
     <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>3823d4cd-c38f-49f7-bb15-bd2488b07cd9</t>
+  </si>
+  <si>
+    <t>6cacf7a2-97ef-4981-a16a-338d571fc115</t>
+  </si>
+  <si>
+    <t>fe266687-9efd-4aea-a37c-49c88632d4f3</t>
+  </si>
+  <si>
+    <t>4bfff76f-cc05-4635-96e5-282f4abb2986</t>
+  </si>
+  <si>
+    <t>90910722-a79d-4c35-8110-3adc988b206b</t>
+  </si>
+  <si>
+    <t>aeb52f84-c587-4e12-8793-69ebf83819f5</t>
+  </si>
+  <si>
+    <t>db582ef3-121c-4061-9569-3dbede361d47</t>
+  </si>
+  <si>
+    <t>ae759142-4006-454f-a585-ca02519e5579</t>
+  </si>
+  <si>
+    <t>6f9ed46f-6498-4567-9637-2324dbfaa0a0</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_1_Personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_2_Praktisk_hjaelp_i_hjemmet</t>
+  </si>
+  <si>
+    <t>83_stk_1_nr_3_Madservice</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_personlig_hjaelp_og_pleje</t>
+  </si>
+  <si>
+    <t>83a_Rehabilitering_praktisk_hjaelp_i_hjemmet</t>
   </si>
   <si>
     <t>H3</t>
@@ -392,6 +444,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -447,6 +1049,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -775,4 +1487,59 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
+++ b/term/ValueSet-KLHomeCareInterventionsFSIII.xlsx
@@ -49,7 +49,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -79,7 +79,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
